--- a/hebrewOutputs/hebrew82Comperation_9_Common_alpha=0.32.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_9_Common_alpha=0.32.xlsx
@@ -34,13 +34,13 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">היי שלום. </t>
+  </si>
+  <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">היי שלום. </t>
   </si>
   <si>
     <t>הורה:</t>
@@ -829,21 +829,21 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -885,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -913,10 +913,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -927,7 +927,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -969,10 +969,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -983,10 +983,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -997,10 +997,10 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1011,7 +1011,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1039,7 +1039,7 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1053,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1081,7 +1081,7 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -1095,10 +1095,10 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1109,7 +1109,7 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -1151,7 +1151,7 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1165,10 +1165,10 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1179,7 +1179,7 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -1193,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1210,7 +1210,7 @@
         <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1221,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1235,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -1249,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -1263,10 +1263,10 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1280,7 +1280,7 @@
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1291,7 +1291,7 @@
         <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1305,10 +1305,10 @@
         <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1319,7 +1319,7 @@
         <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1347,10 +1347,10 @@
         <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1364,7 +1364,7 @@
         <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1375,7 +1375,7 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1403,7 +1403,7 @@
         <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -1417,10 +1417,10 @@
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1431,7 +1431,7 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -1459,7 +1459,7 @@
         <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1473,10 +1473,10 @@
         <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1487,7 +1487,7 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1501,10 +1501,10 @@
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1515,7 +1515,7 @@
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1529,10 +1529,10 @@
         <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1543,10 +1543,10 @@
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1557,10 +1557,10 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1571,7 +1571,7 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -1588,7 +1588,7 @@
         <v>29</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1599,7 +1599,7 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -1613,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -1627,7 +1627,7 @@
         <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -1641,10 +1641,10 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1655,7 +1655,7 @@
         <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -1669,7 +1669,7 @@
         <v>31</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -1683,10 +1683,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1697,7 +1697,7 @@
         <v>31</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -1711,10 +1711,10 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1739,10 +1739,10 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1770,7 +1770,7 @@
         <v>44</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1795,10 +1795,10 @@
         <v>29</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1812,7 +1812,7 @@
         <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1826,7 +1826,7 @@
         <v>29</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1837,10 +1837,10 @@
         <v>29</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1851,7 +1851,7 @@
         <v>93</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -1868,7 +1868,7 @@
         <v>44</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1879,7 +1879,7 @@
         <v>22</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -1907,7 +1907,7 @@
         <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
@@ -1924,7 +1924,7 @@
         <v>44</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1935,7 +1935,7 @@
         <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -1949,10 +1949,10 @@
         <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1963,7 +1963,7 @@
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
@@ -1977,7 +1977,7 @@
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -1991,7 +1991,7 @@
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -2005,10 +2005,10 @@
         <v>64</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2022,7 +2022,7 @@
         <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2033,7 +2033,7 @@
         <v>106</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -2050,7 +2050,7 @@
         <v>44</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2075,10 +2075,10 @@
         <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2089,7 +2089,7 @@
         <v>31</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2103,10 +2103,10 @@
         <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2117,7 +2117,7 @@
         <v>106</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2145,7 +2145,7 @@
         <v>27</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -2159,10 +2159,10 @@
         <v>114</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2173,10 +2173,10 @@
         <v>114</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2187,10 +2187,10 @@
         <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2201,10 +2201,10 @@
         <v>118</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2218,7 +2218,7 @@
         <v>52</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2229,10 +2229,10 @@
         <v>44</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2243,7 +2243,7 @@
         <v>41</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -2257,10 +2257,10 @@
         <v>123</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2285,7 +2285,7 @@
         <v>41</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -2299,7 +2299,7 @@
         <v>41</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -2327,10 +2327,10 @@
         <v>123</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2341,7 +2341,7 @@
         <v>11</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
@@ -2358,7 +2358,7 @@
         <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2369,10 +2369,10 @@
         <v>132</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2383,10 +2383,10 @@
         <v>29</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2397,7 +2397,7 @@
         <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
@@ -2414,7 +2414,7 @@
         <v>52</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2425,10 +2425,10 @@
         <v>132</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2442,7 +2442,7 @@
         <v>29</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2456,7 +2456,7 @@
         <v>29</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2470,7 +2470,7 @@
         <v>52</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2481,7 +2481,7 @@
         <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -2495,7 +2495,7 @@
         <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
@@ -2523,10 +2523,10 @@
         <v>52</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2537,10 +2537,10 @@
         <v>144</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2551,7 +2551,7 @@
         <v>93</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D125" t="s">
         <v>9</v>
@@ -2565,10 +2565,10 @@
         <v>52</v>
       </c>
       <c r="C126" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2579,7 +2579,7 @@
         <v>93</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D127" t="s">
         <v>9</v>
@@ -2593,10 +2593,10 @@
         <v>52</v>
       </c>
       <c r="C128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2607,10 +2607,10 @@
         <v>52</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2624,7 +2624,7 @@
         <v>52</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2635,10 +2635,10 @@
         <v>52</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
